--- a/docs/adf.xlsx
+++ b/docs/adf.xlsx
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-39.4918</v>
+        <v>-39.511</v>
       </c>
       <c r="E2">
         <v>-3.4343</v>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-39.0067</v>
+        <v>-39.1467</v>
       </c>
       <c r="E3">
         <v>-3.4343</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-38.0396</v>
+        <v>-37.8324</v>
       </c>
       <c r="E4">
         <v>-3.4343</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-28.1673</v>
+        <v>-28.2247</v>
       </c>
       <c r="E5">
         <v>-3.4385</v>
